--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2124460.211642424</v>
+        <v>2095207.184125833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2731752.266931183</v>
+        <v>2731752.266931184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>179.4476041204657</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>114.8791903675466</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686252</v>
+        <v>1.941719304021908</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>245.5853929315192</v>
       </c>
       <c r="W5" t="n">
-        <v>3.62666189519208</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.27526719558746</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>78.14136292469489</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>124.05244564678</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7782231316287</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6275052289086</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>31.06688395313278</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>412.4298486781792</v>
@@ -1421,16 +1421,16 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U11" t="n">
         <v>251.11582180088</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>90.66428671861274</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>142.9404988026221</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>215.6132928923039</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H14" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>99.71884268366317</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T14" t="n">
-        <v>122.4279950462175</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U14" t="n">
         <v>251.11582180088</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>109.9618275014104</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.88920693750494</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
         <v>2.249572729045411</v>
@@ -1819,13 +1819,13 @@
         <v>222.4394153930256</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.0922005312032</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>230.3187772707319</v>
       </c>
       <c r="G17" t="n">
-        <v>220.7708452242371</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>99.71884268366315</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T17" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H18" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I18" t="n">
-        <v>36.47348076827031</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.720873529840901</v>
+        <v>4.720873529840958</v>
       </c>
       <c r="S18" t="n">
         <v>143.1316361901922</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4.629232039440024</v>
+        <v>88.31555703962471</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>232.9769539509554</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H20" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5197786803569</v>
+        <v>18.8607752264143</v>
       </c>
       <c r="U20" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2175,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H21" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I21" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S21" t="n">
         <v>143.1316361901922</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>130.3907380155751</v>
       </c>
       <c r="W22" t="n">
-        <v>105.3417732602487</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>332.6957966346195</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>235.8725802071996</v>
       </c>
       <c r="H23" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H24" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I24" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S24" t="n">
         <v>143.1316361901922</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>84.47766451221285</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>35.71853889244147</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2497,7 +2497,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J25" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.4298486781792</v>
+        <v>235.8725802071996</v>
       </c>
       <c r="H26" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U26" t="n">
-        <v>18.86077522641521</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,10 +2649,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H27" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I27" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S27" t="n">
         <v>143.1316361901922</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7023003289308</v>
+        <v>122.4789303748833</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.35964776513043</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I29" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U29" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>117.5950698691615</v>
+        <v>157.5819652634693</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,10 +2886,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H30" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I30" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S30" t="n">
         <v>143.1316361901922</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>70.95641824748525</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U31" t="n">
-        <v>204.1207525841146</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>18.8607752264143</v>
+        <v>18.86077522641341</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,10 +3123,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H33" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I33" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S33" t="n">
         <v>143.1316361901922</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>136.4566681631473</v>
+        <v>136.456668163147</v>
       </c>
       <c r="U34" t="n">
         <v>286.2487377730621</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>133.0178451965403</v>
       </c>
       <c r="U35" t="n">
         <v>251.11582180088</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>216.7047648266109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,10 +3360,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H36" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I36" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S36" t="n">
         <v>143.1316361901922</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.63126163937702</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>24.28877240217738</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>203.0589184824374</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>237.1948967876667</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T40" t="n">
-        <v>208.7623313050379</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2487377730621</v>
+        <v>123.0953261678689</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>182.6428398505998</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T41" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U41" t="n">
-        <v>235.8120976998561</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>55.50527956590209</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5355103223509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3983,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>208.0312782815066</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T44" t="n">
-        <v>177.5166254234904</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U44" t="n">
         <v>251.11582180088</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>26.93375400880188</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>222.4394153930256</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>198.717542659316</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X2" t="n">
-        <v>2526.08081531887</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4410,40 +4410,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>726.1676515761091</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W5" t="n">
-        <v>1658.820279285841</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X5" t="n">
-        <v>1658.820279285841</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,28 +4647,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2516.814900895402</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2516.814900895402</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2185.752013551832</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2185.752013551832</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>2092.477155601805</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>501.1085244247949</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>501.1085244247949</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>501.1085244247949</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>501.1085244247949</v>
       </c>
       <c r="W10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.67413830922</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2060.773066375212</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C11" t="n">
-        <v>1691.810549434801</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D11" t="n">
-        <v>1333.54485082805</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E11" t="n">
-        <v>947.7565982298058</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F11" t="n">
         <v>916.3759073680556</v>
@@ -5039,25 +5039,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J11" t="n">
-        <v>315.4340448017701</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K11" t="n">
-        <v>780.2368617726838</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L11" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M11" t="n">
-        <v>2125.527712279</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N11" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O11" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P11" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q11" t="n">
         <v>4263.177005716608</v>
@@ -5069,22 +5069,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T11" t="n">
-        <v>4148.461884543325</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U11" t="n">
-        <v>3894.809539289911</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V11" t="n">
-        <v>3563.74665194634</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="W11" t="n">
-        <v>3210.977996676226</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X11" t="n">
-        <v>2837.512238415146</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y11" t="n">
-        <v>2447.372906439334</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>406.587375925139</v>
       </c>
       <c r="M12" t="n">
-        <v>1112.501904484757</v>
+        <v>1069.287102644383</v>
       </c>
       <c r="N12" t="n">
         <v>1809.592101648194</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.86932082650513</v>
+        <v>1140.551345253822</v>
       </c>
       <c r="C13" t="n">
-        <v>85.86932082650513</v>
+        <v>971.6151623259146</v>
       </c>
       <c r="D13" t="n">
-        <v>85.86932082650513</v>
+        <v>821.4985229135789</v>
       </c>
       <c r="E13" t="n">
-        <v>85.86932082650513</v>
+        <v>673.5854293311858</v>
       </c>
       <c r="F13" t="n">
-        <v>85.86932082650513</v>
+        <v>526.6954818332754</v>
       </c>
       <c r="G13" t="n">
-        <v>85.86932082650513</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="H13" t="n">
-        <v>85.86932082650513</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="I13" t="n">
-        <v>85.86932082650513</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="J13" t="n">
         <v>85.86932082650513</v>
@@ -5221,28 +5221,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R13" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S13" t="n">
-        <v>960.7860579478829</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T13" t="n">
-        <v>960.7860579478829</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U13" t="n">
-        <v>960.7860579478829</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V13" t="n">
-        <v>706.1015697419961</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="W13" t="n">
-        <v>706.1015697419961</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="X13" t="n">
-        <v>488.3103648002749</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="Y13" t="n">
-        <v>267.5177856567448</v>
+        <v>1284.935687478692</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2082.112581696319</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C14" t="n">
-        <v>1713.150064755907</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.150064755907</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.361812157663</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F14" t="n">
-        <v>916.3759073680556</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G14" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H14" t="n">
         <v>186.595424547377</v>
       </c>
       <c r="I14" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J14" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K14" t="n">
-        <v>780.2368617726829</v>
+        <v>780.236861772683</v>
       </c>
       <c r="L14" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M14" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712278998</v>
       </c>
       <c r="N14" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O14" t="n">
         <v>3467.276709192399</v>
@@ -5297,31 +5297,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q14" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R14" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S14" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T14" t="n">
-        <v>4169.801399864432</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U14" t="n">
-        <v>3916.149054611018</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V14" t="n">
-        <v>3585.086167267447</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W14" t="n">
-        <v>3232.317511997333</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X14" t="n">
-        <v>2858.851753736253</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y14" t="n">
-        <v>2468.712421760441</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G15" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H15" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I15" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J15" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K15" t="n">
         <v>213.3407931253903</v>
@@ -5367,7 +5367,7 @@
         <v>1112.501904484757</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.592101648194</v>
+        <v>1852.806903488568</v>
       </c>
       <c r="O15" t="n">
         <v>2420.410867164489</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.14161651240961</v>
+        <v>736.09977977311</v>
       </c>
       <c r="C16" t="n">
-        <v>88.14161651240961</v>
+        <v>736.09977977311</v>
       </c>
       <c r="D16" t="n">
-        <v>88.14161651240961</v>
+        <v>736.09977977311</v>
       </c>
       <c r="E16" t="n">
-        <v>88.14161651240961</v>
+        <v>673.5854293311858</v>
       </c>
       <c r="F16" t="n">
-        <v>88.14161651240961</v>
+        <v>526.6954818332754</v>
       </c>
       <c r="G16" t="n">
-        <v>88.14161651240961</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="H16" t="n">
-        <v>88.14161651240961</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="I16" t="n">
-        <v>88.14161651240961</v>
+        <v>88.14161651240958</v>
       </c>
       <c r="J16" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K16" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L16" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M16" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905835</v>
       </c>
       <c r="N16" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824186</v>
       </c>
       <c r="O16" t="n">
         <v>1111.798861477226</v>
@@ -5467,19 +5467,19 @@
         <v>736.09977977311</v>
       </c>
       <c r="U16" t="n">
-        <v>446.9596406084008</v>
+        <v>736.09977977311</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2751524025139</v>
+        <v>736.09977977311</v>
       </c>
       <c r="W16" t="n">
-        <v>88.14161651240961</v>
+        <v>736.09977977311</v>
       </c>
       <c r="X16" t="n">
-        <v>88.14161651240961</v>
+        <v>736.09977977311</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.14161651240961</v>
+        <v>736.09977977311</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2246.78332731929</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C17" t="n">
-        <v>1877.820810378878</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D17" t="n">
-        <v>1519.555111772127</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E17" t="n">
-        <v>1133.766859173883</v>
+        <v>735.1103571385365</v>
       </c>
       <c r="F17" t="n">
-        <v>722.7809543842757</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G17" t="n">
-        <v>499.78010062242</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H17" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I17" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J17" t="n">
         <v>315.4340448017697</v>
       </c>
       <c r="K17" t="n">
-        <v>780.2368617726831</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L17" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M17" t="n">
-        <v>2125.527712279</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N17" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O17" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P17" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q17" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R17" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S17" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T17" t="n">
-        <v>4080.819800233988</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U17" t="n">
-        <v>4080.819800233988</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V17" t="n">
-        <v>3749.756912890417</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W17" t="n">
-        <v>3396.988257620303</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X17" t="n">
-        <v>3023.522499359223</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y17" t="n">
-        <v>2633.383167383412</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2646.853706366317</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C18" t="n">
-        <v>2472.40067708519</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D18" t="n">
-        <v>2323.466267423939</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E18" t="n">
-        <v>2164.228812418483</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F18" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G18" t="n">
-        <v>1880.516086645555</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H18" t="n">
-        <v>1782.142354885996</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I18" t="n">
-        <v>1745.300455120067</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J18" t="n">
-        <v>1763.504127373925</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K18" t="n">
-        <v>1872.771927418952</v>
+        <v>213.3407931253902</v>
       </c>
       <c r="L18" t="n">
-        <v>2182.074518024907</v>
+        <v>522.643383731346</v>
       </c>
       <c r="M18" t="n">
-        <v>2887.989046584525</v>
+        <v>1228.557912290963</v>
       </c>
       <c r="N18" t="n">
-        <v>3153.745094988218</v>
+        <v>1494.313960694657</v>
       </c>
       <c r="O18" t="n">
-        <v>3764.563860504512</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P18" t="n">
-        <v>4237.796702887545</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q18" t="n">
-        <v>4293.466041325258</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R18" t="n">
-        <v>4288.697482204207</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S18" t="n">
-        <v>4144.120071911083</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T18" t="n">
-        <v>3948.191777052955</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U18" t="n">
-        <v>3720.070307316816</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V18" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W18" t="n">
-        <v>3230.680842356872</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X18" t="n">
-        <v>3022.829342151339</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y18" t="n">
-        <v>2815.069043386385</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.9632688518027</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="C19" t="n">
-        <v>706.0270859238958</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="D19" t="n">
-        <v>706.0270859238958</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="E19" t="n">
-        <v>558.1139923415027</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="F19" t="n">
-        <v>411.2240448435923</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8378828951774</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="H19" t="n">
-        <v>90.54531278553549</v>
+        <v>175.0769541998634</v>
       </c>
       <c r="I19" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J19" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K19" t="n">
-        <v>212.0463858951881</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L19" t="n">
-        <v>429.0360225430047</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M19" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N19" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O19" t="n">
         <v>1111.798861477226</v>
@@ -5692,7 +5692,7 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q19" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R19" t="n">
         <v>1164.380438888763</v>
@@ -5701,22 +5701,22 @@
         <v>1164.380438888763</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.380438888763</v>
+        <v>939.6941607139895</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.380438888763</v>
+        <v>650.5540215492804</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.380438888763</v>
+        <v>395.8695333433935</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9632688518027</v>
+        <v>395.8695333433935</v>
       </c>
       <c r="X19" t="n">
-        <v>874.9632688518027</v>
+        <v>395.8695333433935</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.9632688518027</v>
+        <v>175.0769541998634</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1848.126825283943</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C20" t="n">
-        <v>1479.164308343531</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D20" t="n">
-        <v>1120.898609736781</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E20" t="n">
-        <v>735.1103571385365</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F20" t="n">
-        <v>499.78010062242</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G20" t="n">
         <v>499.78010062242</v>
@@ -5750,10 +5750,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K20" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L20" t="n">
         <v>1409.142484443882</v>
@@ -5762,13 +5762,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N20" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O20" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P20" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q20" t="n">
         <v>4263.177005716608</v>
@@ -5777,25 +5777,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S20" t="n">
-        <v>4148.461884543325</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T20" t="n">
-        <v>3935.815643452056</v>
+        <v>4274.414753217768</v>
       </c>
       <c r="U20" t="n">
-        <v>3682.163298198641</v>
+        <v>4274.414753217768</v>
       </c>
       <c r="V20" t="n">
-        <v>3351.100410855071</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W20" t="n">
-        <v>2998.331755584956</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X20" t="n">
-        <v>2624.865997323876</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y20" t="n">
-        <v>2234.726665348065</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5838,13 @@
         <v>773.7193177755636</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.633846335181</v>
+        <v>1018.585833222681</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.389894738875</v>
+        <v>1758.890832226492</v>
       </c>
       <c r="O21" t="n">
-        <v>2356.208660255169</v>
+        <v>2369.709597742787</v>
       </c>
       <c r="P21" t="n">
         <v>2578.365568593983</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.86932082650513</v>
+        <v>522.7972764295566</v>
       </c>
       <c r="C22" t="n">
-        <v>85.86932082650513</v>
+        <v>353.8610935016497</v>
       </c>
       <c r="D22" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="E22" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="F22" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="G22" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H22" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I22" t="n">
         <v>85.86932082650513</v>
@@ -5917,10 +5917,10 @@
         <v>429.0360225430045</v>
       </c>
       <c r="M22" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N22" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O22" t="n">
         <v>1111.798861477226</v>
@@ -5929,31 +5929,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q22" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R22" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S22" t="n">
-        <v>960.7860579478834</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T22" t="n">
-        <v>736.09977977311</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U22" t="n">
-        <v>446.9596406084008</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V22" t="n">
-        <v>192.2751524025139</v>
+        <v>1153.227871301344</v>
       </c>
       <c r="W22" t="n">
-        <v>85.86932082650513</v>
+        <v>1153.227871301344</v>
       </c>
       <c r="X22" t="n">
-        <v>85.86932082650513</v>
+        <v>925.2383204033265</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.86932082650513</v>
+        <v>704.4457412597964</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1848.126825283944</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C23" t="n">
-        <v>1479.164308343532</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D23" t="n">
-        <v>1120.898609736782</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E23" t="n">
-        <v>735.1103571385374</v>
+        <v>735.1103571385365</v>
       </c>
       <c r="F23" t="n">
-        <v>399.0539969015481</v>
+        <v>324.124452348929</v>
       </c>
       <c r="G23" t="n">
-        <v>399.0539969015481</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H23" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I23" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J23" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K23" t="n">
         <v>780.2368617726829</v>
@@ -6008,31 +6008,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q23" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R23" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S23" t="n">
-        <v>4148.461884543326</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T23" t="n">
-        <v>3935.815643452057</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U23" t="n">
-        <v>3682.163298198642</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V23" t="n">
         <v>3351.100410855071</v>
       </c>
       <c r="W23" t="n">
-        <v>2998.331755584957</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X23" t="n">
-        <v>2624.865997323877</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y23" t="n">
-        <v>2234.726665348066</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2646.853706366317</v>
+        <v>2646.853706366316</v>
       </c>
       <c r="C24" t="n">
-        <v>2472.40067708519</v>
+        <v>2472.400677085189</v>
       </c>
       <c r="D24" t="n">
-        <v>2323.466267423939</v>
+        <v>2323.466267423938</v>
       </c>
       <c r="E24" t="n">
-        <v>2164.228812418483</v>
+        <v>2164.228812418482</v>
       </c>
       <c r="F24" t="n">
         <v>2017.694254445368</v>
       </c>
       <c r="G24" t="n">
-        <v>1880.516086645555</v>
+        <v>1880.516086645554</v>
       </c>
       <c r="H24" t="n">
-        <v>1782.142354885996</v>
+        <v>1782.142354885995</v>
       </c>
       <c r="I24" t="n">
-        <v>1745.300455120067</v>
+        <v>1745.300455120066</v>
       </c>
       <c r="J24" t="n">
-        <v>1763.504127373925</v>
+        <v>1888.334252360929</v>
       </c>
       <c r="K24" t="n">
-        <v>1872.771927418952</v>
+        <v>2259.422637048408</v>
       </c>
       <c r="L24" t="n">
-        <v>2433.150452069125</v>
+        <v>2819.801161698582</v>
       </c>
       <c r="M24" t="n">
-        <v>3139.064980628743</v>
+        <v>3064.6676771457</v>
       </c>
       <c r="N24" t="n">
-        <v>3404.821029032436</v>
+        <v>3330.423725549393</v>
       </c>
       <c r="O24" t="n">
-        <v>4015.639794548731</v>
+        <v>3556.587345646021</v>
       </c>
       <c r="P24" t="n">
-        <v>4237.796702887545</v>
+        <v>4029.820188029053</v>
       </c>
       <c r="Q24" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R24" t="n">
-        <v>4288.697482204207</v>
+        <v>4288.697482204206</v>
       </c>
       <c r="S24" t="n">
-        <v>4144.120071911083</v>
+        <v>4144.120071911082</v>
       </c>
       <c r="T24" t="n">
-        <v>3948.191777052955</v>
+        <v>3948.191777052954</v>
       </c>
       <c r="U24" t="n">
-        <v>3720.070307316816</v>
+        <v>3720.070307316815</v>
       </c>
       <c r="V24" t="n">
         <v>3484.918199085073</v>
       </c>
       <c r="W24" t="n">
-        <v>3230.680842356872</v>
+        <v>3230.680842356871</v>
       </c>
       <c r="X24" t="n">
-        <v>3022.829342151339</v>
+        <v>3022.829342151338</v>
       </c>
       <c r="Y24" t="n">
-        <v>2815.069043386385</v>
+        <v>2815.069043386384</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3887.131298320245</v>
+        <v>1056.946136580675</v>
       </c>
       <c r="C25" t="n">
-        <v>3718.195115392338</v>
+        <v>971.6151623259146</v>
       </c>
       <c r="D25" t="n">
-        <v>3718.195115392338</v>
+        <v>821.4985229135789</v>
       </c>
       <c r="E25" t="n">
-        <v>3682.11578317775</v>
+        <v>673.5854293311858</v>
       </c>
       <c r="F25" t="n">
-        <v>3535.22583567984</v>
+        <v>526.6954818332754</v>
       </c>
       <c r="G25" t="n">
-        <v>3366.839673731425</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="H25" t="n">
-        <v>3214.547103621783</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="I25" t="n">
-        <v>3096.671970358974</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="J25" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K25" t="n">
-        <v>3220.576739741753</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L25" t="n">
-        <v>3437.56637638957</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M25" t="n">
-        <v>3676.740647137149</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N25" t="n">
-        <v>3915.662504728984</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O25" t="n">
-        <v>4120.329215323791</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P25" t="n">
-        <v>4271.936261275596</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q25" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R25" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S25" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T25" t="n">
-        <v>4068.779763150485</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U25" t="n">
-        <v>4068.779763150485</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V25" t="n">
-        <v>4068.779763150485</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="W25" t="n">
-        <v>4068.779763150485</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="X25" t="n">
-        <v>4068.779763150485</v>
+        <v>1056.946136580675</v>
       </c>
       <c r="Y25" t="n">
-        <v>4068.779763150485</v>
+        <v>1056.946136580675</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2440.378280303069</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C26" t="n">
-        <v>2071.415763362658</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D26" t="n">
-        <v>1713.150064755907</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.361812157663</v>
+        <v>735.1103571385365</v>
       </c>
       <c r="F26" t="n">
-        <v>916.3759073680556</v>
+        <v>324.124452348929</v>
       </c>
       <c r="G26" t="n">
-        <v>499.78010062242</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H26" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I26" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J26" t="n">
         <v>315.4340448017692</v>
       </c>
       <c r="K26" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L26" t="n">
         <v>1409.142484443882</v>
@@ -6236,40 +6236,40 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N26" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O26" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P26" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q26" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R26" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S26" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T26" t="n">
-        <v>4293.466041325258</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U26" t="n">
-        <v>4274.414753217768</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V26" t="n">
-        <v>3943.351865874197</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W26" t="n">
-        <v>3590.583210604083</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.117452343003</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y26" t="n">
-        <v>2826.978120367191</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="27">
@@ -6294,28 +6294,28 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G27" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H27" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I27" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J27" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3407931253903</v>
+        <v>264.0420625470922</v>
       </c>
       <c r="L27" t="n">
-        <v>406.5873759251391</v>
+        <v>824.4205871972655</v>
       </c>
       <c r="M27" t="n">
-        <v>1112.501904484757</v>
+        <v>1069.287102644383</v>
       </c>
       <c r="N27" t="n">
-        <v>1852.806903488568</v>
+        <v>1809.592101648194</v>
       </c>
       <c r="O27" t="n">
         <v>2420.410867164489</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>256.5277784608245</v>
+        <v>654.5050926069052</v>
       </c>
       <c r="C28" t="n">
-        <v>256.5277784608245</v>
+        <v>654.5050926069052</v>
       </c>
       <c r="D28" t="n">
-        <v>256.5277784608245</v>
+        <v>504.3884531945695</v>
       </c>
       <c r="E28" t="n">
-        <v>256.5277784608245</v>
+        <v>356.4753596121764</v>
       </c>
       <c r="F28" t="n">
-        <v>256.5277784608245</v>
+        <v>209.585412114266</v>
       </c>
       <c r="G28" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H28" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I28" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K28" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L28" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M28" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N28" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O28" t="n">
         <v>1111.798861477226</v>
@@ -6403,31 +6403,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q28" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R28" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S28" t="n">
-        <v>960.7860579478834</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T28" t="n">
-        <v>736.09977977311</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U28" t="n">
-        <v>658.9688224345944</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V28" t="n">
-        <v>658.9688224345944</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="W28" t="n">
-        <v>658.9688224345944</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="X28" t="n">
-        <v>658.9688224345944</v>
+        <v>1056.946136580675</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.1762432910642</v>
+        <v>836.153557437145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2082.112581696319</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C29" t="n">
-        <v>1713.150064755907</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D29" t="n">
         <v>1713.150064755907</v>
@@ -6458,10 +6458,10 @@
         <v>186.595424547377</v>
       </c>
       <c r="I29" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J29" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K29" t="n">
         <v>780.2368617726829</v>
@@ -6473,40 +6473,40 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N29" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O29" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P29" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q29" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716607</v>
       </c>
       <c r="R29" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S29" t="n">
-        <v>4148.461884543326</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="T29" t="n">
-        <v>3935.815643452057</v>
+        <v>4080.819800233986</v>
       </c>
       <c r="U29" t="n">
-        <v>3682.163298198642</v>
+        <v>4080.819800233986</v>
       </c>
       <c r="V29" t="n">
-        <v>3351.100410855071</v>
+        <v>3749.756912890416</v>
       </c>
       <c r="W29" t="n">
-        <v>3232.317511997333</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X29" t="n">
-        <v>2858.851753736253</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y29" t="n">
-        <v>2468.712421760441</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="30">
@@ -6531,31 +6531,31 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G30" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7112205924348</v>
+        <v>122.7112205924347</v>
       </c>
       <c r="I30" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J30" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K30" t="n">
-        <v>213.3407931253903</v>
+        <v>213.3407931253902</v>
       </c>
       <c r="L30" t="n">
-        <v>773.7193177755637</v>
+        <v>406.587375925139</v>
       </c>
       <c r="M30" t="n">
-        <v>1459.210798728345</v>
+        <v>754.0089616908455</v>
       </c>
       <c r="N30" t="n">
-        <v>2199.515797732156</v>
+        <v>1494.313960694657</v>
       </c>
       <c r="O30" t="n">
-        <v>2420.410867164489</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P30" t="n">
         <v>2578.365568593983</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.86932082650516</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="C31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="D31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="E31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="F31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="G31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="H31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="I31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J31" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K31" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L31" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M31" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N31" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O31" t="n">
         <v>1111.798861477226</v>
@@ -6640,31 +6640,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q31" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R31" t="n">
-        <v>1284.935687478693</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S31" t="n">
-        <v>1284.935687478693</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.935687478693</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="U31" t="n">
-        <v>1078.7531091109</v>
+        <v>446.9596406084003</v>
       </c>
       <c r="V31" t="n">
-        <v>824.0686209050132</v>
+        <v>446.9596406084003</v>
       </c>
       <c r="W31" t="n">
-        <v>534.6514508680526</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="X31" t="n">
-        <v>306.6618999700353</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.86932082650516</v>
+        <v>157.5424705714397</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>186.595424547377</v>
       </c>
       <c r="I32" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J32" t="n">
         <v>315.4340448017696</v>
       </c>
       <c r="K32" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L32" t="n">
-        <v>1409.142484443882</v>
+        <v>1409.142484443881</v>
       </c>
       <c r="M32" t="n">
         <v>2125.527712278998</v>
@@ -6713,22 +6713,22 @@
         <v>2838.872804512372</v>
       </c>
       <c r="O32" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P32" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q32" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716607</v>
       </c>
       <c r="R32" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S32" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="T32" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="U32" t="n">
         <v>4274.414753217768</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4225720727555</v>
+        <v>2646.853706366315</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9695427916286</v>
+        <v>2472.400677085188</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0351331303773</v>
+        <v>2323.466267423937</v>
       </c>
       <c r="E33" t="n">
-        <v>504.7976781249217</v>
+        <v>2164.228812418482</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2631201518067</v>
+        <v>2017.694254445367</v>
       </c>
       <c r="G33" t="n">
-        <v>221.0849523519937</v>
+        <v>1880.516086645554</v>
       </c>
       <c r="H33" t="n">
-        <v>122.7112205924348</v>
+        <v>1782.142354885995</v>
       </c>
       <c r="I33" t="n">
-        <v>85.86932082650513</v>
+        <v>1745.300455120065</v>
       </c>
       <c r="J33" t="n">
-        <v>104.0729930803638</v>
+        <v>1763.504127373924</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3407931253903</v>
+        <v>1872.77192741895</v>
       </c>
       <c r="L33" t="n">
-        <v>406.5873759251391</v>
+        <v>2066.018510218699</v>
       </c>
       <c r="M33" t="n">
-        <v>1069.287102644383</v>
+        <v>2771.933038778317</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.592101648194</v>
+        <v>3512.238037782128</v>
       </c>
       <c r="O33" t="n">
-        <v>2420.410867164489</v>
+        <v>4079.842001458049</v>
       </c>
       <c r="P33" t="n">
-        <v>2578.365568593983</v>
+        <v>4237.796702887543</v>
       </c>
       <c r="Q33" t="n">
-        <v>2634.034907031697</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="R33" t="n">
-        <v>2629.266347910645</v>
+        <v>4288.697482204205</v>
       </c>
       <c r="S33" t="n">
-        <v>2484.688937617521</v>
+        <v>4144.120071911081</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.760642759394</v>
+        <v>3948.191777052954</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.639173023254</v>
+        <v>3720.070307316814</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.487064791512</v>
+        <v>3484.918199085072</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.24970806331</v>
+        <v>3230.68084235687</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.398207857777</v>
+        <v>3022.829342151337</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.637909092824</v>
+        <v>2815.069043386383</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="C34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="D34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="E34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="F34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="G34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="H34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="I34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K34" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L34" t="n">
         <v>429.0360225430045</v>
       </c>
       <c r="M34" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N34" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O34" t="n">
         <v>1111.798861477226</v>
@@ -6877,13 +6877,13 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q34" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R34" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S34" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T34" t="n">
         <v>1147.100669132079</v>
@@ -6898,10 +6898,10 @@
         <v>313.8588717245225</v>
       </c>
       <c r="X34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2339.652176582198</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="C35" t="n">
-        <v>1970.689659641786</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D35" t="n">
-        <v>1612.423961035036</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E35" t="n">
-        <v>1226.635708436791</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F35" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G35" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H35" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I35" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J35" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K35" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L35" t="n">
-        <v>1409.142484443882</v>
+        <v>1409.142484443881</v>
       </c>
       <c r="M35" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712278998</v>
       </c>
       <c r="N35" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O35" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P35" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q35" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716607</v>
       </c>
       <c r="R35" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S35" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="T35" t="n">
-        <v>4293.466041325258</v>
+        <v>4159.104581530771</v>
       </c>
       <c r="U35" t="n">
-        <v>4039.813696071843</v>
+        <v>3905.452236277356</v>
       </c>
       <c r="V35" t="n">
-        <v>3708.750808728273</v>
+        <v>3574.389348933786</v>
       </c>
       <c r="W35" t="n">
-        <v>3489.857106883211</v>
+        <v>3221.620693663671</v>
       </c>
       <c r="X35" t="n">
-        <v>3116.391348622131</v>
+        <v>2848.154935402591</v>
       </c>
       <c r="Y35" t="n">
-        <v>2726.25201664632</v>
+        <v>2458.01560342678</v>
       </c>
     </row>
     <row r="36">
@@ -7005,25 +7005,25 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H36" t="n">
-        <v>122.7112205924348</v>
+        <v>122.7112205924347</v>
       </c>
       <c r="I36" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J36" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K36" t="n">
-        <v>213.3407931253903</v>
+        <v>213.3407931253902</v>
       </c>
       <c r="L36" t="n">
-        <v>406.5873759251391</v>
+        <v>406.587375925139</v>
       </c>
       <c r="M36" t="n">
-        <v>1069.287102644383</v>
+        <v>1112.501904484757</v>
       </c>
       <c r="N36" t="n">
         <v>1809.592101648194</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.834029235845</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="C37" t="n">
-        <v>740.834029235845</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="D37" t="n">
-        <v>590.7173898235093</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="E37" t="n">
-        <v>524.4231861473709</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="F37" t="n">
-        <v>524.4231861473709</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="G37" t="n">
-        <v>356.0370241989559</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="H37" t="n">
-        <v>203.7444540893141</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="I37" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="J37" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="K37" t="n">
-        <v>212.046385895188</v>
+        <v>3220.576739741751</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0360225430046</v>
+        <v>3437.566376389568</v>
       </c>
       <c r="M37" t="n">
-        <v>668.2102932905836</v>
+        <v>3676.740647137147</v>
       </c>
       <c r="N37" t="n">
-        <v>907.1321508824187</v>
+        <v>3915.662504728982</v>
       </c>
       <c r="O37" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.329215323789</v>
       </c>
       <c r="P37" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275594</v>
       </c>
       <c r="Q37" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="R37" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S37" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="T37" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="U37" t="n">
-        <v>1284.935687478693</v>
+        <v>4268.931927787703</v>
       </c>
       <c r="V37" t="n">
-        <v>1030.251199272806</v>
+        <v>4014.247439581816</v>
       </c>
       <c r="W37" t="n">
-        <v>740.834029235845</v>
+        <v>3724.830269544856</v>
       </c>
       <c r="X37" t="n">
-        <v>740.834029235845</v>
+        <v>3496.840718646838</v>
       </c>
       <c r="Y37" t="n">
-        <v>740.834029235845</v>
+        <v>3276.048139503308</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2339.652176582198</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C38" t="n">
-        <v>1970.689659641786</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D38" t="n">
-        <v>1612.423961035036</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.635708436791</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F38" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G38" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H38" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I38" t="n">
         <v>85.86932082650516</v>
@@ -7199,25 +7199,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S38" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T38" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="U38" t="n">
-        <v>4039.813696071843</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="V38" t="n">
-        <v>3708.750808728273</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W38" t="n">
-        <v>3355.982153458158</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X38" t="n">
-        <v>3116.391348622131</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y38" t="n">
-        <v>2726.25201664632</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>104.0729930803639</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3407931253903</v>
+        <v>352.1885551651344</v>
       </c>
       <c r="L39" t="n">
-        <v>406.5873759251391</v>
+        <v>912.5670798153077</v>
       </c>
       <c r="M39" t="n">
-        <v>1069.287102644383</v>
+        <v>1618.481608374925</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.592101648194</v>
+        <v>1884.237656778619</v>
       </c>
       <c r="O39" t="n">
-        <v>2420.410867164489</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P39" t="n">
         <v>2578.365568593983</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="C40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="D40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="E40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="F40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="G40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="H40" t="n">
-        <v>3094.39967467307</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="I40" t="n">
-        <v>3094.39967467307</v>
+        <v>88.14161651240961</v>
       </c>
       <c r="J40" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K40" t="n">
-        <v>3220.576739741753</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L40" t="n">
-        <v>3437.56637638957</v>
+        <v>429.0360225430046</v>
       </c>
       <c r="M40" t="n">
-        <v>3676.740647137149</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N40" t="n">
-        <v>3915.662504728984</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O40" t="n">
-        <v>4120.329215323791</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P40" t="n">
-        <v>4271.936261275596</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q40" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R40" t="n">
-        <v>4293.466041325258</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S40" t="n">
-        <v>4293.466041325258</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="T40" t="n">
-        <v>4082.594999602997</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="U40" t="n">
-        <v>3793.454860438288</v>
+        <v>836.4473446470057</v>
       </c>
       <c r="V40" t="n">
-        <v>3793.454860438288</v>
+        <v>836.4473446470057</v>
       </c>
       <c r="W40" t="n">
-        <v>3504.037690401327</v>
+        <v>836.4473446470057</v>
       </c>
       <c r="X40" t="n">
-        <v>3276.04813950331</v>
+        <v>608.4577937489884</v>
       </c>
       <c r="Y40" t="n">
-        <v>3276.04813950331</v>
+        <v>387.6652146054582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2339.652176582198</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.689659641786</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.423961035036</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.635708436791</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F41" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G41" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H41" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I41" t="n">
         <v>85.86932082650516</v>
       </c>
       <c r="J41" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726834</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
@@ -7424,10 +7424,10 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O41" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P41" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q41" t="n">
         <v>4263.177005716609</v>
@@ -7436,25 +7436,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S41" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T41" t="n">
-        <v>4080.819800233988</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U41" t="n">
-        <v>3842.625762153325</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V41" t="n">
-        <v>3842.625762153325</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W41" t="n">
-        <v>3489.857106883211</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X41" t="n">
-        <v>3116.391348622131</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y41" t="n">
-        <v>2726.25201664632</v>
+        <v>2624.865997323877</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>213.3407931253903</v>
       </c>
       <c r="L42" t="n">
-        <v>773.7193177755637</v>
+        <v>406.5873759251391</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.633846335181</v>
+        <v>1069.287102644383</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.389894738875</v>
+        <v>1809.592101648194</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.208660255169</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P42" t="n">
         <v>2578.365568593983</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.2213986975559</v>
+        <v>292.0518991942976</v>
       </c>
       <c r="C43" t="n">
-        <v>552.285215769649</v>
+        <v>235.9859602388409</v>
       </c>
       <c r="D43" t="n">
-        <v>402.1685763573132</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="E43" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="F43" t="n">
-        <v>254.2554827749201</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="G43" t="n">
         <v>85.86932082650516</v>
@@ -7603,16 +7603,16 @@
         <v>1284.935687478693</v>
       </c>
       <c r="V43" t="n">
-        <v>1284.935687478693</v>
+        <v>1030.251199272806</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.935687478693</v>
+        <v>740.834029235845</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.946136580675</v>
+        <v>512.8444783378277</v>
       </c>
       <c r="Y43" t="n">
-        <v>902.8698635277956</v>
+        <v>292.0518991942976</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2026.467500507155</v>
+        <v>1848.126825283944</v>
       </c>
       <c r="C44" t="n">
-        <v>1657.504983566743</v>
+        <v>1479.164308343532</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.239284959993</v>
+        <v>1120.898609736782</v>
       </c>
       <c r="E44" t="n">
-        <v>913.4510323617483</v>
+        <v>910.7660054120275</v>
       </c>
       <c r="F44" t="n">
-        <v>502.4651275721407</v>
+        <v>499.78010062242</v>
       </c>
       <c r="G44" t="n">
-        <v>85.86932082650516</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H44" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I44" t="n">
         <v>85.86932082650516</v>
       </c>
       <c r="J44" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
         <v>780.2368617726829</v>
@@ -7661,10 +7661,10 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O44" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P44" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q44" t="n">
         <v>4263.177005716609</v>
@@ -7673,25 +7673,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S44" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T44" t="n">
-        <v>4114.156318675267</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U44" t="n">
-        <v>3860.503973421853</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V44" t="n">
-        <v>3529.441086078282</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W44" t="n">
-        <v>3176.672430808168</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X44" t="n">
-        <v>2803.206672547088</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y44" t="n">
-        <v>2413.067340571276</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="45">
@@ -7731,13 +7731,13 @@
         <v>213.3407931253903</v>
       </c>
       <c r="L45" t="n">
-        <v>753.2962701687276</v>
+        <v>406.5873759251391</v>
       </c>
       <c r="M45" t="n">
-        <v>1459.210798728345</v>
+        <v>1112.501904484757</v>
       </c>
       <c r="N45" t="n">
-        <v>2199.515797732156</v>
+        <v>1852.806903488568</v>
       </c>
       <c r="O45" t="n">
         <v>2420.410867164489</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.4513149428702</v>
+        <v>423.191665702827</v>
       </c>
       <c r="C46" t="n">
-        <v>385.5151320149633</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="D46" t="n">
-        <v>385.5151320149633</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="E46" t="n">
-        <v>385.5151320149633</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="F46" t="n">
-        <v>385.5151320149633</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="G46" t="n">
-        <v>358.3093198848604</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H46" t="n">
-        <v>206.0167497752185</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I46" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J46" t="n">
         <v>85.86932082650516</v>
@@ -7828,28 +7828,28 @@
         <v>1284.935687478693</v>
       </c>
       <c r="R46" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S46" t="n">
-        <v>960.7860579478834</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T46" t="n">
-        <v>736.09977977311</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U46" t="n">
-        <v>736.09977977311</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="V46" t="n">
-        <v>736.09977977311</v>
+        <v>805.5649210980324</v>
       </c>
       <c r="W46" t="n">
-        <v>736.09977977311</v>
+        <v>604.8401305330667</v>
       </c>
       <c r="X46" t="n">
-        <v>736.09977977311</v>
+        <v>604.8401305330667</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.09977977311</v>
+        <v>604.8401305330667</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>422.0537487597238</v>
       </c>
       <c r="N12" t="n">
-        <v>435.6910593532774</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.6910593532771</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>350.2110042864531</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>117.2282907133393</v>
+        <v>117.2282907133405</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>64.85071404981801</v>
+        <v>51.21340345626439</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>5.321768347773968</v>
       </c>
       <c r="P24" t="n">
-        <v>64.85071404981801</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>51.21340345626459</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>350.2110042864531</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>445.0757227329938</v>
+        <v>103.5909801197868</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>422.0537487597236</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>350.2110042864531</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>422.0537487597236</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.6910593532774</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>140.2502646866102</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>422.0537487597236</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298233</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11142,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.0537487597236</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>64.85071404981801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298233</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>350.211004286453</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>350.2110042864531</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>375.8091617885786</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>237.0879717515222</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>36.89148137931519</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
         <v>222.4394153930256</v>
@@ -23473,16 +23473,16 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>10.09636249673321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>88.09178363413932</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.2761111546432</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>84.54475570906422</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>183.4307978053878</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>176.5572684709796</v>
       </c>
       <c r="G17" t="n">
-        <v>191.659003453942</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>99.71884268366321</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,28 +23890,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I19" t="n">
-        <v>112.0671498907408</v>
+        <v>28.38082489055613</v>
       </c>
       <c r="J19" t="n">
-        <v>2.249572729045397</v>
+        <v>2.24957272904544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>173.8990917907561</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>191.6590034539425</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,10 +24145,10 @@
         <v>150.7696444085454</v>
       </c>
       <c r="I22" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.7469053082529</v>
       </c>
       <c r="W22" t="n">
-        <v>181.1812250763423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24215,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>74.18024910709198</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.4298486781792</v>
+        <v>176.5572684709796</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I23" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>82.76915658641498</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.7154237541277</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U25" t="n">
         <v>286.2487377730621</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>176.5572684709796</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>232.2550465744648</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.22336995404753</v>
       </c>
       <c r="H28" t="n">
         <v>150.7696444085454</v>
@@ -24622,7 +24622,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
-        <v>209.8890900079317</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>231.6458988482515</v>
+        <v>191.6590034539437</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>96.29040285114259</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24859,7 +24859,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J31" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.12798518894749</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24971,7 +24971,7 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U32" t="n">
-        <v>232.2550465744657</v>
+        <v>232.2550465744666</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J34" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T34" t="n">
-        <v>85.98274722987836</v>
+        <v>85.98274722987858</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5197786803569</v>
+        <v>77.50193348381652</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>132.5362038908021</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80270100719216</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J37" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>222.4394153930256</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2487377730621</v>
+        <v>261.9599653708847</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25439,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>124.6933399876975</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>132.5362038908023</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25567,10 +25567,10 @@
         <v>150.7696444085454</v>
       </c>
       <c r="I40" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.67708408798771</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>163.1534116051932</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>200.0910018128808</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>15.30372410102393</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.7415415327257</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H43" t="n">
         <v>150.7696444085454</v>
@@ -25843,16 +25843,16 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.04914302974385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>173.8990917907551</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H44" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>33.00315325686643</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>139.7685463201289</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>87.80545567727498</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799873.9295115551</v>
+        <v>799873.9295115554</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799873.9295115554</v>
+        <v>799873.9295115555</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799873.9295115552</v>
+        <v>799873.9295115555</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799873.9295115552</v>
+        <v>799873.9295115554</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799873.9295115555</v>
+        <v>799873.9295115552</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799873.9295115554</v>
+        <v>799873.9295115552</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799873.9295115555</v>
+        <v>799873.9295115552</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799873.9295115556</v>
+        <v>799873.9295115555</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>799873.9295115551</v>
+        <v>799873.9295115554</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
@@ -26323,10 +26323,10 @@
         <v>492738.76865244</v>
       </c>
       <c r="F2" t="n">
+        <v>492738.7686524398</v>
+      </c>
+      <c r="G2" t="n">
         <v>492738.7686524399</v>
-      </c>
-      <c r="G2" t="n">
-        <v>492738.7686524398</v>
       </c>
       <c r="H2" t="n">
         <v>492738.76865244</v>
@@ -26335,25 +26335,25 @@
         <v>492738.7686524399</v>
       </c>
       <c r="J2" t="n">
+        <v>492738.7686524401</v>
+      </c>
+      <c r="K2" t="n">
+        <v>492738.7686524396</v>
+      </c>
+      <c r="L2" t="n">
+        <v>492738.7686524395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>492738.7686524395</v>
+      </c>
+      <c r="N2" t="n">
         <v>492738.76865244</v>
       </c>
-      <c r="K2" t="n">
-        <v>492738.7686524399</v>
-      </c>
-      <c r="L2" t="n">
-        <v>492738.7686524399</v>
-      </c>
-      <c r="M2" t="n">
-        <v>492738.7686524399</v>
-      </c>
-      <c r="N2" t="n">
-        <v>492738.7686524399</v>
-      </c>
       <c r="O2" t="n">
-        <v>492738.76865244</v>
+        <v>492738.7686524398</v>
       </c>
       <c r="P2" t="n">
-        <v>492738.7686524399</v>
+        <v>492738.7686524397</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>389812.6557155694</v>
+        <v>389812.6557155695</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99452.14232107856</v>
+        <v>99452.14232107857</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>152899.6228295281</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="F4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="G4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="H4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="I4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="J4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="K4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="L4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="M4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="N4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="O4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
       <c r="P4" t="n">
-        <v>12544.30853216852</v>
+        <v>15856.58088552448</v>
       </c>
     </row>
     <row r="5">
@@ -26479,28 +26479,28 @@
         <v>80839.64176874656</v>
       </c>
       <c r="F5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="G5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="H5" t="n">
         <v>80839.64176874656</v>
       </c>
       <c r="I5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="J5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="K5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874654</v>
       </c>
       <c r="L5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874654</v>
       </c>
       <c r="M5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874654</v>
       </c>
       <c r="N5" t="n">
         <v>80839.64176874657</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271523.3854490913</v>
+        <v>-275398.7208707855</v>
       </c>
       <c r="C6" t="n">
-        <v>318444.4937654537</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
-        <v>318444.4937654533</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>9542.162635955465</v>
+        <v>6229.890282599445</v>
       </c>
       <c r="F6" t="n">
-        <v>399354.8183515248</v>
+        <v>396042.5459981688</v>
       </c>
       <c r="G6" t="n">
-        <v>399354.8183515246</v>
+        <v>396042.545998169</v>
       </c>
       <c r="H6" t="n">
-        <v>399354.8183515249</v>
+        <v>396042.5459981691</v>
       </c>
       <c r="I6" t="n">
-        <v>399354.8183515248</v>
+        <v>396042.5459981689</v>
       </c>
       <c r="J6" t="n">
-        <v>222931.599158932</v>
+        <v>219619.3268055762</v>
       </c>
       <c r="K6" t="n">
-        <v>399354.8183515248</v>
+        <v>396042.5459981686</v>
       </c>
       <c r="L6" t="n">
-        <v>399354.8183515248</v>
+        <v>396042.5459981685</v>
       </c>
       <c r="M6" t="n">
-        <v>299902.6760304463</v>
+        <v>296590.4036770899</v>
       </c>
       <c r="N6" t="n">
-        <v>399354.8183515248</v>
+        <v>396042.545998169</v>
       </c>
       <c r="O6" t="n">
-        <v>399354.8183515249</v>
+        <v>396042.5459981688</v>
       </c>
       <c r="P6" t="n">
-        <v>399354.8183515249</v>
+        <v>396042.5459981686</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,25 +26750,25 @@
         <v>714.6310981927826</v>
       </c>
       <c r="G3" t="n">
-        <v>714.6310981927827</v>
+        <v>714.6310981927824</v>
       </c>
       <c r="H3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="I3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="J3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="K3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="L3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="M3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="N3" t="n">
         <v>714.6310981927826</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1073.366510331314</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.8874339756958</v>
+        <v>336.8874339756959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.0792375767586</v>
+        <v>399.0792375767587</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767586</v>
+        <v>399.0792375767587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767586</v>
+        <v>399.0792375767587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>148.3046543496692</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>254.8519103109224</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352323</v>
+        <v>216.6429340480729</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>82.16686553861567</v>
       </c>
       <c r="W5" t="n">
-        <v>345.614306822221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>91.03453506346345</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>6.771212764859825</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>287.1315288463127</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>92.39587471087776</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>6.531579127422162</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>16.51803372111027</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H17" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I17" t="n">
-        <v>110.7570468867428</v>
+        <v>110.7570468867427</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8328489255867</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K17" t="n">
-        <v>365.4422333939304</v>
+        <v>365.4422333939302</v>
       </c>
       <c r="L17" t="n">
-        <v>453.3634051379199</v>
+        <v>453.3634051379196</v>
       </c>
       <c r="M17" t="n">
-        <v>504.4541419921345</v>
+        <v>504.4541419921342</v>
       </c>
       <c r="N17" t="n">
-        <v>512.6167374001355</v>
+        <v>512.6167374001352</v>
       </c>
       <c r="O17" t="n">
-        <v>484.0494490276552</v>
+        <v>484.0494490276549</v>
       </c>
       <c r="P17" t="n">
-        <v>413.1250058653061</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.2396743918225</v>
+        <v>310.2396743918224</v>
       </c>
       <c r="R17" t="n">
         <v>180.4641034044317</v>
       </c>
       <c r="S17" t="n">
-        <v>65.46595437213283</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T17" t="n">
-        <v>12.5760708837745</v>
+        <v>12.57607088377449</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H18" t="n">
-        <v>14.84544979453309</v>
+        <v>14.84544979453308</v>
       </c>
       <c r="I18" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314474</v>
       </c>
       <c r="J18" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K18" t="n">
-        <v>248.2129541713555</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L18" t="n">
-        <v>333.752948264469</v>
+        <v>333.7529482644688</v>
       </c>
       <c r="M18" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N18" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O18" t="n">
-        <v>365.7225772043763</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P18" t="n">
-        <v>293.5246108784658</v>
+        <v>293.5246108784657</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.2134290736109</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R18" t="n">
-        <v>95.43696062280223</v>
+        <v>95.43696062280218</v>
       </c>
       <c r="S18" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T18" t="n">
-        <v>6.195716785275161</v>
+        <v>6.195716785275158</v>
       </c>
       <c r="U18" t="n">
         <v>0.1011270421970919</v>
@@ -32382,25 +32382,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288679029527969</v>
+        <v>1.288679029527968</v>
       </c>
       <c r="H19" t="n">
-        <v>11.45752809889413</v>
+        <v>11.45752809889412</v>
       </c>
       <c r="I19" t="n">
-        <v>38.75409299707747</v>
+        <v>38.75409299707745</v>
       </c>
       <c r="J19" t="n">
-        <v>91.10960738762738</v>
+        <v>91.10960738762734</v>
       </c>
       <c r="K19" t="n">
         <v>149.7210727033403</v>
       </c>
       <c r="L19" t="n">
-        <v>191.5914258990946</v>
+        <v>191.5914258990945</v>
       </c>
       <c r="M19" t="n">
-        <v>202.0062955104615</v>
+        <v>202.0062955104614</v>
       </c>
       <c r="N19" t="n">
         <v>197.2030373094937</v>
@@ -32412,19 +32412,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.9092958271102</v>
+        <v>107.9092958271101</v>
       </c>
       <c r="R19" t="n">
-        <v>57.94369527313938</v>
+        <v>57.94369527313935</v>
       </c>
       <c r="S19" t="n">
-        <v>22.45816090550105</v>
+        <v>22.45816090550104</v>
       </c>
       <c r="T19" t="n">
-        <v>5.506174035255865</v>
+        <v>5.506174035255862</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07029158342879838</v>
+        <v>0.07029158342879833</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H20" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I20" t="n">
         <v>110.7570468867427</v>
@@ -32476,16 +32476,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L20" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M20" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N20" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O20" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P20" t="n">
         <v>413.125005865306</v>
@@ -32497,13 +32497,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S20" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T20" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H21" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I21" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J21" t="n">
         <v>145.2251743978371</v>
@@ -32558,13 +32558,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M21" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N21" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O21" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P21" t="n">
         <v>293.5246108784658</v>
@@ -32573,13 +32573,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R21" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S21" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T21" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U21" t="n">
         <v>0.1011270421970919</v>
@@ -32628,7 +32628,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J22" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K22" t="n">
         <v>149.7210727033403</v>
@@ -32652,16 +32652,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R22" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S22" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T22" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H23" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I23" t="n">
         <v>110.7570468867427</v>
@@ -32713,16 +32713,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L23" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M23" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N23" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O23" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P23" t="n">
         <v>413.125005865306</v>
@@ -32734,13 +32734,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S23" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T23" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H24" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I24" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J24" t="n">
         <v>145.2251743978371</v>
@@ -32795,13 +32795,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M24" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N24" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O24" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P24" t="n">
         <v>293.5246108784658</v>
@@ -32810,13 +32810,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R24" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S24" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T24" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U24" t="n">
         <v>0.1011270421970919</v>
@@ -32865,7 +32865,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J25" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K25" t="n">
         <v>149.7210727033403</v>
@@ -32889,16 +32889,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R25" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S25" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T25" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H26" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I26" t="n">
         <v>110.7570468867427</v>
@@ -32950,16 +32950,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L26" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M26" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N26" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O26" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P26" t="n">
         <v>413.125005865306</v>
@@ -32971,13 +32971,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S26" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T26" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H27" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I27" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J27" t="n">
         <v>145.2251743978371</v>
@@ -33032,13 +33032,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M27" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N27" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O27" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P27" t="n">
         <v>293.5246108784658</v>
@@ -33047,13 +33047,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R27" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S27" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T27" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U27" t="n">
         <v>0.1011270421970919</v>
@@ -33102,7 +33102,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J28" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K28" t="n">
         <v>149.7210727033403</v>
@@ -33126,16 +33126,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R28" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S28" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T28" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H29" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I29" t="n">
         <v>110.7570468867427</v>
@@ -33187,16 +33187,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L29" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M29" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N29" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O29" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P29" t="n">
         <v>413.125005865306</v>
@@ -33208,13 +33208,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S29" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T29" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H30" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I30" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J30" t="n">
         <v>145.2251743978371</v>
@@ -33269,13 +33269,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M30" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N30" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O30" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P30" t="n">
         <v>293.5246108784658</v>
@@ -33284,13 +33284,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R30" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S30" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T30" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U30" t="n">
         <v>0.1011270421970919</v>
@@ -33339,7 +33339,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J31" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K31" t="n">
         <v>149.7210727033403</v>
@@ -33363,16 +33363,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R31" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S31" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T31" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H32" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I32" t="n">
         <v>110.7570468867427</v>
@@ -33424,16 +33424,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L32" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M32" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N32" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O32" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P32" t="n">
         <v>413.125005865306</v>
@@ -33445,13 +33445,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S32" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T32" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H33" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I33" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J33" t="n">
         <v>145.2251743978371</v>
@@ -33506,13 +33506,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M33" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N33" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O33" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P33" t="n">
         <v>293.5246108784658</v>
@@ -33521,13 +33521,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R33" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S33" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T33" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U33" t="n">
         <v>0.1011270421970919</v>
@@ -33576,7 +33576,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J34" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K34" t="n">
         <v>149.7210727033403</v>
@@ -33600,16 +33600,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R34" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S34" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T34" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H35" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I35" t="n">
         <v>110.7570468867427</v>
@@ -33661,16 +33661,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L35" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M35" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N35" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O35" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P35" t="n">
         <v>413.125005865306</v>
@@ -33682,13 +33682,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S35" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T35" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H36" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I36" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J36" t="n">
         <v>145.2251743978371</v>
@@ -33743,13 +33743,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M36" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N36" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O36" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P36" t="n">
         <v>293.5246108784658</v>
@@ -33758,13 +33758,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R36" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S36" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T36" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U36" t="n">
         <v>0.1011270421970919</v>
@@ -33813,7 +33813,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J37" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K37" t="n">
         <v>149.7210727033403</v>
@@ -33837,16 +33837,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R37" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S37" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T37" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>195.1985684845947</v>
       </c>
       <c r="M12" t="n">
-        <v>713.044978343048</v>
+        <v>669.3936633527719</v>
       </c>
       <c r="N12" t="n">
-        <v>704.1315122863008</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O12" t="n">
         <v>616.9886520366613</v>
@@ -35735,10 +35735,10 @@
         <v>713.0449783430481</v>
       </c>
       <c r="N15" t="n">
-        <v>704.1315122863006</v>
+        <v>747.782827276577</v>
       </c>
       <c r="O15" t="n">
-        <v>616.9886520366613</v>
+        <v>573.3373370463848</v>
       </c>
       <c r="P15" t="n">
         <v>159.5502034641355</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K17" t="n">
-        <v>469.4977949201146</v>
+        <v>469.4977949201144</v>
       </c>
       <c r="L17" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183828</v>
       </c>
       <c r="M17" t="n">
-        <v>723.6214422576942</v>
+        <v>723.621442257694</v>
       </c>
       <c r="N17" t="n">
-        <v>720.5505982155288</v>
+        <v>720.5505982155285</v>
       </c>
       <c r="O17" t="n">
-        <v>634.7514188687138</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P17" t="n">
-        <v>503.6907182815192</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.2489751772777</v>
+        <v>300.2489751772776</v>
       </c>
       <c r="R17" t="n">
-        <v>30.59498546328206</v>
+        <v>30.59498546328197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.38754773117043</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K18" t="n">
-        <v>110.3715151969965</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L18" t="n">
-        <v>312.426859197934</v>
+        <v>312.4268591979351</v>
       </c>
       <c r="M18" t="n">
-        <v>713.0449783430481</v>
+        <v>713.0449783430479</v>
       </c>
       <c r="N18" t="n">
-        <v>268.4404529330235</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9886520366613</v>
+        <v>616.9886520366612</v>
       </c>
       <c r="P18" t="n">
-        <v>478.0129721040727</v>
+        <v>478.0129721040726</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.23165498758934</v>
+        <v>56.23165498758925</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>127.4515808774575</v>
+        <v>127.4515808774574</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M19" t="n">
         <v>241.590172472302</v>
       </c>
       <c r="N19" t="n">
-        <v>241.3352096887223</v>
+        <v>241.3352096887222</v>
       </c>
       <c r="O19" t="n">
-        <v>206.7340511058657</v>
+        <v>206.7340511058656</v>
       </c>
       <c r="P19" t="n">
-        <v>153.1384302543488</v>
+        <v>153.1384302543487</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.7472525754158</v>
+        <v>21.74725257541574</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K20" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L20" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M20" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N20" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O20" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P20" t="n">
         <v>503.6907182815191</v>
@@ -36142,7 +36142,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R20" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K21" t="n">
-        <v>110.3715151969965</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L21" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M21" t="n">
-        <v>713.0449783430481</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N21" t="n">
-        <v>268.4404529330235</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O21" t="n">
         <v>616.9886520366613</v>
       </c>
       <c r="P21" t="n">
-        <v>224.4009175139535</v>
+        <v>210.7636069203999</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.23165498758931</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M22" t="n">
         <v>241.590172472302</v>
@@ -36297,7 +36297,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K23" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L23" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M23" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N23" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O23" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P23" t="n">
         <v>503.6907182815191</v>
@@ -36379,7 +36379,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R23" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.3875477311704</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K24" t="n">
-        <v>110.3715151969965</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L24" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M24" t="n">
-        <v>713.0449783430481</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N24" t="n">
-        <v>268.4404529330235</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O24" t="n">
-        <v>616.9886520366613</v>
+        <v>228.4481011077057</v>
       </c>
       <c r="P24" t="n">
-        <v>224.4009175139535</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.23165498758931</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L25" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M25" t="n">
         <v>241.590172472302</v>
@@ -36534,7 +36534,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K26" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L26" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M26" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N26" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O26" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P26" t="n">
         <v>503.6907182815191</v>
@@ -36616,7 +36616,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R26" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K27" t="n">
-        <v>110.3715151969965</v>
+        <v>161.584918653261</v>
       </c>
       <c r="L27" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M27" t="n">
-        <v>713.0449783430481</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N27" t="n">
-        <v>747.782827276577</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O27" t="n">
-        <v>573.3373370463848</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P27" t="n">
         <v>159.5502034641355</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.23165498758931</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L28" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M28" t="n">
         <v>241.590172472302</v>
@@ -36771,7 +36771,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K29" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L29" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M29" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N29" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O29" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P29" t="n">
         <v>503.6907182815191</v>
@@ -36853,7 +36853,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R29" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K30" t="n">
-        <v>110.3715151969965</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L30" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M30" t="n">
-        <v>692.415637326042</v>
+        <v>350.9308947128349</v>
       </c>
       <c r="N30" t="n">
-        <v>747.782827276577</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O30" t="n">
-        <v>223.1263327599318</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.23165498758931</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M31" t="n">
         <v>241.590172472302</v>
@@ -37008,7 +37008,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K32" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L32" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M32" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N32" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O32" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P32" t="n">
         <v>503.6907182815191</v>
@@ -37090,7 +37090,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R32" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K33" t="n">
-        <v>110.3715151969965</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L33" t="n">
         <v>195.1985684845947</v>
       </c>
       <c r="M33" t="n">
-        <v>669.3936633527718</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N33" t="n">
-        <v>747.782827276577</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O33" t="n">
-        <v>616.9886520366613</v>
+        <v>573.3373370463848</v>
       </c>
       <c r="P33" t="n">
         <v>159.5502034641355</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.23165498758931</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L34" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M34" t="n">
         <v>241.590172472302</v>
@@ -37245,7 +37245,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K35" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L35" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M35" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N35" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O35" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P35" t="n">
         <v>503.6907182815191</v>
@@ -37327,7 +37327,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R35" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.3875477311704</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K36" t="n">
-        <v>110.3715151969965</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L36" t="n">
         <v>195.1985684845947</v>
       </c>
       <c r="M36" t="n">
-        <v>669.3936633527718</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N36" t="n">
-        <v>747.782827276577</v>
+        <v>704.1315122863008</v>
       </c>
       <c r="O36" t="n">
         <v>616.9886520366613</v>
@@ -37403,7 +37403,7 @@
         <v>159.5502034641355</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.23165498758931</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L37" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M37" t="n">
         <v>241.590172472302</v>
@@ -37482,7 +37482,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>18.3875477311704</v>
       </c>
       <c r="K39" t="n">
-        <v>110.3715151969965</v>
+        <v>250.6217798836066</v>
       </c>
       <c r="L39" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M39" t="n">
-        <v>669.3936633527718</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N39" t="n">
-        <v>747.782827276577</v>
+        <v>268.4404529330235</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599318</v>
       </c>
       <c r="P39" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q39" t="n">
         <v>56.23165498758931</v>
@@ -37801,7 +37801,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R41" t="n">
-        <v>30.59498546328203</v>
+        <v>30.59498546328192</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>110.3715151969965</v>
       </c>
       <c r="L42" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M42" t="n">
-        <v>713.0449783430481</v>
+        <v>669.3936633527718</v>
       </c>
       <c r="N42" t="n">
-        <v>268.4404529330235</v>
+        <v>747.782827276577</v>
       </c>
       <c r="O42" t="n">
         <v>616.9886520366613</v>
       </c>
       <c r="P42" t="n">
-        <v>224.4009175139535</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q42" t="n">
         <v>56.23165498758931</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
         <v>469.4977949201145</v>
@@ -38038,7 +38038,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R44" t="n">
-        <v>30.59498546328192</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>110.3715151969965</v>
       </c>
       <c r="L45" t="n">
-        <v>545.4095727710477</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M45" t="n">
         <v>713.0449783430481</v>
@@ -38108,7 +38108,7 @@
         <v>747.782827276577</v>
       </c>
       <c r="O45" t="n">
-        <v>223.1263327599318</v>
+        <v>573.3373370463848</v>
       </c>
       <c r="P45" t="n">
         <v>159.5502034641355</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2161521.238609674</v>
+        <v>2153296.532282504</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2148914.160613252</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647539.563462017</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9846387.570120623</v>
+        <v>10015446.30525381</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>173.3217671684648</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>140.7283949888227</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>19.20307792260221</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>33.53104180731088</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>140.821531544474</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>137.8337915576356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>61.17339989484355</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>137.1649833439799</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>51.11906992624019</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>324.9188781025328</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3107022885809</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.3916813376077</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>309.661948037665</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>98.24739628628183</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>65.91263778665174</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7859647942628</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>97.19276741007971</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>35.77037804334448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.452959877095665</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>142.7523189876367</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>193.8866996287558</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8389115303862</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>135.1998613927024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.6851797739081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>150.6174271102524</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>116.1815201482245</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03914948893825</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>118.5798936936444</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>222.3662639306558</v>
+        <v>126.9307399414726</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>325.4389469969071</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>309.661948037665</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1127684136343</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7859647942628</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>97.19276741007971</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>35.77037804334448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.452959877095665</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>142.7523189876367</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>193.8866996287558</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8389115303862</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.6851797739081</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150.6174271102524</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>116.1815201482245</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03914948893825</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>118.5798936936444</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>41.70383120651792</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>119.0929986500074</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>394.1691218074502</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>98.24739628628186</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>142.6843769408403</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1127684136343</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7859647942628</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>97.19276741007971</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>35.77037804334449</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.45295987709568</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>142.7523189876367</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>193.8866996287558</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8389115303862</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6851797739081</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>116.1815201482245</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.039149488938264</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>118.5798936936444</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>222.3662639306558</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>85.17244986895889</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3916813376077</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>178.3007850645488</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>98.24739628628186</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>142.6843769408403</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>210.3527011470053</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1127684136343</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7859647942628</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>97.19276741007971</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>35.77037804334449</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.45295987709568</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>142.7523189876367</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>193.8866996287558</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8389115303862</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.039149488938264</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.5798936936444</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.009154666954618</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.2126529119972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>49.38162151975431</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>42.91133348714307</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>143.6235551937889</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.40847129570706</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>137.7497637955645</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>127.5209999275598</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>126.4476979561452</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>123.2743057666216</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>9.621991078756851</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>76.88221821520618</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>105.9751510769325</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>204.1272080136132</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>177.1306818837992</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>58.1120446494155</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.1037832399832</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="C2" t="n">
-        <v>787.1037832399832</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1037832399832</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1037832399832</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032604</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293416</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W2" t="n">
-        <v>787.1037832399832</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X2" t="n">
-        <v>787.1037832399832</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.1037832399832</v>
+        <v>595.2995674921788</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.9585371372236</v>
+        <v>902.54097859005</v>
       </c>
       <c r="C3" t="n">
-        <v>336.9585371372236</v>
+        <v>728.087949308923</v>
       </c>
       <c r="D3" t="n">
-        <v>188.0241274759724</v>
+        <v>579.1535396476718</v>
       </c>
       <c r="E3" t="n">
-        <v>188.0241274759724</v>
+        <v>419.9160846422163</v>
       </c>
       <c r="F3" t="n">
-        <v>41.48956950285734</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G3" t="n">
-        <v>41.48956950285734</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318534</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>274.5546080058863</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>547.9495565712182</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>821.34450513655</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="U3" t="n">
-        <v>779.9621455744991</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="V3" t="n">
-        <v>544.8100373427565</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="W3" t="n">
-        <v>544.8100373427565</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="X3" t="n">
-        <v>336.9585371372236</v>
+        <v>1070.756315610118</v>
       </c>
       <c r="Y3" t="n">
-        <v>336.9585371372236</v>
+        <v>1070.756315610118</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>739.4505815494899</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>739.4505815494899</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>381.1848829427394</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>381.1848829427394</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>238.9409116856949</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>474.0852112039967</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>773.2160860494146</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1112.91633981057</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1112.91633981057</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1112.91633981057</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>739.4505815494899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>739.4505815494899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>353.150609410092</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>178.697580128965</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>314.0811796138496</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>682.4004141518067</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1050.719648689764</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>1257.711717241716</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>1426.367210360591</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1191.215102128848</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>936.9777454006467</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>729.1262451951138</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>521.36594643016</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>168.3136586939561</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>32.09990175888137</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>90.6165479061123</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>162.7032697236682</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>238.5105468400013</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>292.5145415057937</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="T7" t="n">
-        <v>647.076640892137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="U7" t="n">
-        <v>647.076640892137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="V7" t="n">
-        <v>647.076640892137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="W7" t="n">
-        <v>647.076640892137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="X7" t="n">
-        <v>647.076640892137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.2840617486069</v>
+        <v>315.2036061918664</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2439.389352490891</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2070.426835550479</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1712.161136943729</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1326.372884345484</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>915.3869795558769</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>498.8297256795055</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>186.0398791768137</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>319.5718201921197</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>789.1811157227681</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1424.049600065226</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2147.069660430061</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2867.156943719986</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3501.927308228686</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4006.014745497908</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4307.341657888559</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4340.004247412308</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4340.004247412308</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4273.425825405589</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.425825405589</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3942.362938062019</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3589.594282791904</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3216.128524530825</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2825.989192555013</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4232845941314</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9702553130044</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0358456517531</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7983906462977</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2638326731826</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.1062924769575</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>122.9317799415234</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>106.9138311434617</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>219.4462517863683</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0825198591718</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.119604084366</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.682737559581</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2412.221930323555</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2574.037213864316</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2632.28724920511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2628.799410945417</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2484.605149341744</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.759998201586</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.63988554463</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.487777312888</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.250420584686</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.398920379153</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.638621614199</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>957.0810431134241</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C13" t="n">
-        <v>820.5155265551389</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>820.5155265551389</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>672.6024329727458</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>525.7124854748354</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>357.3436170163423</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>205.2048017534611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>87.84973089666865</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>86.80008494824617</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>214.9463562556437</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>434.4558989150361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>676.2870572349278</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>917.8026275510417</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1124.86505165129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1278.522044379297</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1301.471101319788</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1181.693430922167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1181.693430922167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>957.0810431134241</v>
+        <v>1370.703401930152</v>
       </c>
       <c r="U13" t="n">
-        <v>957.0810431134241</v>
+        <v>1370.703401930152</v>
       </c>
       <c r="V13" t="n">
-        <v>957.0810431134241</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="W13" t="n">
-        <v>957.0810431134241</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0810431134241</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.0810431134241</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.318513473737</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>1883.355996533325</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1525.090297926575</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1139.30204532833</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>728.3161405387229</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>399.589931450938</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>86.80008494824617</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>319.5718201921197</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>789.1811157227681</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1424.049600065226</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2147.069660430061</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2867.156943719987</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3501.927308228686</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4006.014745497908</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4307.341657888559</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4340.004247412308</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4340.004247412308</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4340.004247412308</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4086.354986388435</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3755.292099044865</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3402.52344377475</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3029.057685513671</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2638.918353537859</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4232845941314</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9702553130044</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0358456517531</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7983906462977</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2638326731826</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.1062924769575</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>122.9317799415234</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>106.9138311434617</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>219.4462517863683</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0825198591718</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1051.029865550661</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1796.592999025877</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2412.221930323555</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2574.037213864316</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2632.28724920511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2628.799410945417</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2484.605149341744</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.759998201586</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.63988554463</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.487777312888</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.250420584686</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.398920379153</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.638621614199</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1139.568348895382</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>970.6321659674746</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>820.5155265551389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>672.6024329727458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>525.7124854748354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>357.3436170163423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>205.2048017534611</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>87.84973089666865</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>86.80008494824617</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>214.9463562556437</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>434.4558989150361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>676.2870572349278</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
-        <v>917.8026275510417</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1124.86505165129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1278.522044379297</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1301.471101319788</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1181.693430922167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1181.693430922167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1181.693430922167</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1139.568348895382</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.568348895382</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.568348895382</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X16" t="n">
-        <v>1139.568348895382</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.568348895382</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2108.192880200161</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1739.23036325975</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1380.964664652999</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>995.1764120547548</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>584.1905072651473</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>186.0398791768137</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>186.0398791768137</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>319.571820192119</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>789.1811157227676</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1424.049600065226</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2147.069660430061</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2867.156943719986</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3501.927308228686</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4006.014745497909</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4307.341657888559</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4340.004247412308</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4195.878614138733</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4195.878614138733</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3942.22935311486</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3611.166465771289</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3258.397810501175</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>2884.932052240095</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2494.792720264283</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4232845941314</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9702553130044</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0358456517531</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7983906462977</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2638326731826</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.1062924769575</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>122.9317799415234</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>106.9138311434617</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>219.4462517863682</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>417.0825198591717</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.119604084366</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1873.682737559581</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2412.221930323555</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2574.037213864316</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2632.28724920511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2628.799410945417</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.605149341744</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.759998201586</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.63988554463</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.487777312888</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.250420584686</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.398920379153</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.638621614199</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>689.3998006377714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>520.4636177098645</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>520.4636177098645</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>520.4636177098645</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>373.5736702119541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>205.2048017534611</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>205.2048017534611</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>87.84973089666866</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>86.80008494824617</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>214.9463562556437</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>434.4558989150361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>676.2870572349277</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>917.8026275510416</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1124.86505165129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1278.522044379297</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1301.471101319788</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1181.693430922167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1181.693430922167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>957.0810431134241</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>871.0482654680111</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>871.0482654680111</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>871.0482654680111</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>871.0482654680111</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>871.0482654680111</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1895.715404294095</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>1526.752887353684</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1168.487188746933</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>782.698936148689</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>782.698936148689</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>366.1416822723176</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>186.0398791768137</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>319.5718201921196</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>789.181115722768</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1424.049600065226</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2147.069660430061</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>2867.156943719987</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3501.927308228686</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4006.014745497909</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4307.341657888559</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4340.004247412308</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4195.878614138733</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>3983.401138232667</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3729.751877208794</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3398.688989865223</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3045.920334595109</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>2672.454576334029</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2282.315244358217</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4232845941314</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9702553130044</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0358456517531</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7983906462977</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2638326731826</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.1062924769575</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>122.9317799415234</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80008494824617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>106.9138311434617</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>219.4462517863682</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0825198591717</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.119604084366</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1871.238554156301</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.943789370017</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2574.037213864316</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2632.28724920511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2628.799410945417</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2484.605149341744</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.759998201586</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.63988554463</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.487777312888</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.250420584686</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.398920379153</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.638621614199</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3295.319059917097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3126.38287698919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3125.333231040767</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3253.479502348165</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3472.989045007557</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>3714.820203327449</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>3956.335773643563</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4163.398197743811</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4317.055190471818</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4340.004247412308</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4220.226577014688</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4220.226577014688</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4215.166824825845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>4215.166824825845</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4215.166824825845</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>3925.749654788884</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>3697.760103890867</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>3476.967524747336</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>147.0975172378155</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>147.0975172378155</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>1159.85161622171</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>939.0590370781803</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1564.731711769082</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1894.594339433114</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>882.7763375151577</v>
+        <v>754.4177361809765</v>
       </c>
       <c r="C28" t="n">
-        <v>713.8401545872508</v>
+        <v>585.4815532530696</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>435.3649138407338</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>287.4518202583407</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>140.5618727604304</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>140.5618727604304</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>140.5618727604304</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1353.841972382358</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1353.841972382358</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1353.841972382358</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1353.841972382358</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>1064.424802345397</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.424802345397</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.424802345397</v>
+        <v>936.0662010112162</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.6878657662453</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.6964226305959</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.4441907482616</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4441907482616</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4441907482616</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4441907482616</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X34" t="n">
-        <v>558.0926555785013</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.0926555785013</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,40 +6922,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1006.27269220504</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>837.3365092771334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>687.2198698647976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.92115703528</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.92115703528</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y37" t="n">
-        <v>1187.92115703528</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7171,19 +7171,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.2953582963253</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>640.3591753684184</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>640.3591753684184</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>640.3591753684184</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>493.469227870508</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>325.2939061903286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>174.8758977382719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963253</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X40" t="n">
-        <v>809.2953582963253</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y40" t="n">
-        <v>809.2953582963253</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>524.8400981009108</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C43" t="n">
-        <v>524.8400981009108</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="D43" t="n">
-        <v>524.8400981009108</v>
+        <v>610.6003310670585</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>462.6872374846654</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>315.797289986755</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>315.797289986755</v>
       </c>
       <c r="H43" t="n">
         <v>208.7516828383384</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1068.941756343758</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>814.2572681378715</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>524.8400981009108</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>524.8400981009108</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>524.8400981009108</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7836,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1129.22212203587</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1129.22212203587</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>874.5376338299834</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W46" t="n">
-        <v>874.5376338299834</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X46" t="n">
-        <v>646.5480829319661</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.7555037884359</v>
+        <v>423.0269196489024</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,10 +8069,10 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>342.7591889337359</v>
       </c>
       <c r="O3" t="n">
-        <v>211.9437496729917</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357594</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>450.103353283573</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>437.6152809470454</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>291.5160437006014</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>315.993896515412</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
-        <v>387.8366409886823</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>315.9938965154122</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>476.8735022190284</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>124.3400780863227</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>142.6843769408403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>144.4400633603535</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1127684136343</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.04695970592545</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>201.2600725498478</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>94.61682111691661</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2478039246063</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>86.9527343407006</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>98.24739628628183</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>142.6843769408403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.3527011470053</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>201.2600725498478</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>222.3662639306558</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>244.5439727180884</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>106.6166567390298</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.22255953015747</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>309.661948037665</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.3527011470053</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>150.6174271102524</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>201.2600725498478</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>201.0753540556474</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>131.3611629731162</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6851797739081</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>150.6174271102524</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>116.1815201482245</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>201.2600725498478</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>217.3571092637011</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2478039246063</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.6193272699401</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>99.53220684778182</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>67.50791197712893</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>54.29725478981439</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.4235088862302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>83.7977972628247</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.90004809537142</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>160.0753003804458</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>23.15965687994756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>216.0876643102803</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>33.53702724906582</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>42.93867729060365</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.11014438496412</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.701298298138141</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>163.4355164089737</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900335.7216747085</v>
+        <v>899629.3112655157</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804393.5240720093</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804393.5240720094</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>804393.5240720093</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>804393.5240720093</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583906</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>495622.2021496739</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>495622.2021496738</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
-        <v>495622.202149674</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
-        <v>495622.2021496739</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147457</v>
+        <v>106137.1517703829</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>316711.9424252117</v>
       </c>
       <c r="E3" t="n">
-        <v>400914.0861242219</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>114611.2468206036</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113904</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>24677.24609313394</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>76496.15793817161</v>
       </c>
       <c r="M3" t="n">
-        <v>102351.519098508</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,22 +26420,22 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>252867.8426256217</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15789.9365244485</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15789.9365244485</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15789.9365244485</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15789.9365244485</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26472,25 +26472,25 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>58810.42201485707</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>81753.99444735365</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>81753.99444735365</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>81753.99444735365</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>81753.99444735365</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871661</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93372.12830141454</v>
+        <v>93372.12830141495</v>
       </c>
       <c r="C6" t="n">
-        <v>-126138.9251709869</v>
+        <v>136387.7782475299</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.158343759</v>
+        <v>-2142.784081452613</v>
       </c>
       <c r="E6" t="n">
-        <v>-2835.814946350045</v>
+        <v>-105278.3926608665</v>
       </c>
       <c r="F6" t="n">
-        <v>398078.2711778717</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="G6" t="n">
-        <v>398078.2711778719</v>
+        <v>419881.6438160299</v>
       </c>
       <c r="H6" t="n">
-        <v>398078.2711778717</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="I6" t="n">
-        <v>306244.9882551477</v>
+        <v>419881.6438160299</v>
       </c>
       <c r="J6" t="n">
-        <v>348601.540204612</v>
+        <v>347626.9489448908</v>
       </c>
       <c r="K6" t="n">
-        <v>318390.1178800048</v>
+        <v>395204.3977228956</v>
       </c>
       <c r="L6" t="n">
-        <v>420856.2350757516</v>
+        <v>343385.485877858</v>
       </c>
       <c r="M6" t="n">
-        <v>318504.7159772434</v>
+        <v>285080.6285821927</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757511</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160297</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>117.5602045593884</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>724.1252241599341</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>724.1252241599341</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>724.125224159934</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>724.125224159934</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1085.001061853077</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1085.001061853077</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1085.001061853077</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1085.001061853077</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979614</v>
+        <v>82.53894384026304</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>346.3815599428474</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>106.2571812941662</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522002</v>
+        <v>95.88311714406586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="E4" t="n">
-        <v>410.7137890985215</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>130.212581400496</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023553</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522002</v>
+        <v>95.88311714406586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="M4" t="n">
-        <v>410.7137890985215</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522002</v>
+        <v>95.88311714406586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="M4" t="n">
-        <v>410.7137890985215</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>175.9192015489482</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>245.5095436672308</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.30484918084224</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>61.94980209306869</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27514,16 +27514,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27593,13 +27593,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>266.0545141972374</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>248.404147098418</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129689</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>164.7513463081276</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>30.6140022029783</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358486</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322674</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>173.9160355318441</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>155.9865295915269</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.31906055352079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>51.97117195339683</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.4726038374246765</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>4.84005405002547</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>18.22005944231486</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>40.11165994662268</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>60.11698038480925</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>74.58043007439471</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>82.9850985681958</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>84.32788422127867</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>79.62842981288703</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>67.96102257646533</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>51.03589764869407</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>29.68720080262786</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>10.76945994531483</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>2.068823298326523</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.03780830699397412</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.252865345656043</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>2.442146890941257</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>8.706109488596216</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>23.89022987182816</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>40.83220803078304</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>54.90394270483512</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>64.07031148486666</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>65.76606198270918</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>60.16309827106737</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>48.28619043496841</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>32.27803956128717</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>15.69983260134625</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>4.696862889707637</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>1.019224792359225</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.01663587800368704</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.2119938115005364</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>1.884817705886589</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>6.375232076761588</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>14.98796247308792</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>24.62982646342595</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>31.51769812072521</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>33.23099356094317</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>32.44083480898665</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>29.96436164736674</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>25.63968789275577</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>17.75159088846765</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>9.532012651651389</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>3.694473969513892</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>0.9057917400477462</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.01156329880912018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.911056177527371</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>29.81285407810219</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>112.2284932841241</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>247.0722542474139</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>370.2972622421476</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>459.386497735151</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>511.1559930322533</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>519.4270313966531</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>490.4802165313652</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>418.6135171486582</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>314.3613177909591</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>182.8616326116039</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>66.33569264540503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>12.74314841712607</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2328844942021896</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.557552368947783</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>15.04267682641675</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>53.6262548080706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>147.1545420153693</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5105507348707</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>338.186973792807</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>394.648247167164</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>405.0934119571692</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>370.5813305189051</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>297.4241887686341</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.8201936221766</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>96.70487427554747</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>28.93085211620112</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>6.278029066065842</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.10247055058867</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.305799584550701</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>11.60974539718715</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>39.26895477903381</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>92.32003062773452</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7101699141632</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>194.1367855067469</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>204.6900203309793</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>199.8229491521996</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>184.5688358235845</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>157.9305242987501</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.34290884815</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>58.71349768352513</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>22.75652548712447</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>5.579325497625719</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07122543188458376</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.911056177527371</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>29.81285407810219</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>112.2284932841241</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>247.0722542474139</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>370.2972622421476</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>459.386497735151</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>511.1559930322533</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>519.4270313966531</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>490.4802165313652</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>418.6135171486582</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>314.3613177909591</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>182.8616326116039</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>66.33569264540503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>12.74314841712607</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2328844942021896</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.557552368947783</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>15.04267682641675</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>53.6262548080706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>147.1545420153693</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5105507348707</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>338.186973792807</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>394.648247167164</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>405.0934119571692</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>370.5813305189051</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>297.4241887686341</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.8201936221766</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>96.70487427554747</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>28.93085211620112</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>6.278029066065842</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.10247055058867</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.305799584550701</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>11.60974539718715</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>39.26895477903381</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>92.32003062773452</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7101699141632</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>194.1367855067469</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>204.6900203309793</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>199.8229491521996</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>184.5688358235845</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>157.9305242987501</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.34290884815</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>58.71349768352513</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>22.75652548712447</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>5.579325497625719</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07122543188458376</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.91105617752737</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>29.81285407810219</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>112.2284932841241</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>247.0722542474139</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>370.2972622421476</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>459.3864977351509</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>511.1559930322533</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>519.427031396653</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>490.4802165313652</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>418.6135171486581</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>314.361317790959</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>182.8616326116039</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>66.33569264540502</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>12.74314841712607</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2328844942021896</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.557552368947783</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>15.04267682641674</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>53.62625480807059</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>147.1545420153693</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>251.5105507348707</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>338.186973792807</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>394.648247167164</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0934119571691</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>370.5813305189051</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>297.4241887686341</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.8201936221766</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>96.70487427554745</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>28.93085211620112</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>6.27802906606584</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1024705505886699</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.3057995845507</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>11.60974539718715</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>39.26895477903381</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>92.32003062773451</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7101699141632</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>194.1367855067469</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>204.6900203309793</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>199.8229491521996</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>184.5688358235845</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>157.9305242987501</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>109.34290884815</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>58.71349768352512</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>22.75652548712447</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>5.579325497625718</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07122543188458375</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.91105617752737</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>29.81285407810219</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>112.2284932841241</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>247.0722542474139</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>370.2972622421476</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>459.3864977351509</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>511.1559930322533</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>519.427031396653</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>490.4802165313652</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>418.6135171486581</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>314.361317790959</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>182.8616326116039</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>66.33569264540502</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>12.74314841712607</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2328844942021896</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.557552368947783</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>15.04267682641674</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>53.62625480807059</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>147.1545420153693</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5105507348707</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>338.186973792807</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>394.648247167164</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0934119571691</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>370.5813305189051</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>297.4241887686341</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.8201936221766</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>96.70487427554745</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>28.93085211620112</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>6.27802906606584</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1024705505886699</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3057995845507</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>11.60974539718715</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>39.26895477903381</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>92.32003062773451</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7101699141632</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>194.1367855067469</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>204.6900203309793</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>199.8229491521996</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>184.5688358235845</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>157.9305242987501</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>109.34290884815</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>58.71349768352512</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>22.75652548712447</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>5.579325497625718</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07122543188458375</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>231.0092291087367</v>
       </c>
       <c r="O3" t="n">
-        <v>87.27013098543772</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>28.16237059201016</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>164.1725419109934</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>256.4752296548579</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>292.2617450366719</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>41.04519843414927</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>209.0828975272244</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>232.7745516605753</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>2.360334637543097</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>59.10772338104135</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>72.81487052278376</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>76.57300718821524</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>54.54948956140642</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>22.91824715764926</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>235.1229648928014</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3528237683318</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>641.2812973156142</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>730.3232932978131</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>727.3608922120463</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>641.1821863724239</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>509.1792295648713</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>304.3706185764143</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>32.9925146704542</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.31691534870257</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>113.6691117605117</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>199.6325940129328</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>718.2192769951456</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>753.0940742173893</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>543.9789825898727</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4497813543039</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.83841953615513</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>129.4406780882804</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>221.7268107670631</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>244.2738972928199</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>243.9551215314282</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>209.1539637376242</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>155.2090835636436</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.18086559645566</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>235.1229648928014</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3528237683318</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>641.2812973156142</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>730.3232932978131</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>727.3608922120463</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>641.1821863724239</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>509.1792295648713</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>304.3706185764143</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>32.9925146704542</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.31691534870257</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>113.6691117605117</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>199.6325940129328</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>640.350854233828</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>753.0940742173893</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>621.8474053511902</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4497813543039</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.83841953615513</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>129.4406780882804</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>221.7268107670631</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>244.2738972928199</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>243.9551215314282</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>209.1539637376242</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>155.2090835636436</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.18086559645566</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>235.1229648928014</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3528237683317</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>641.2812973156141</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>730.3232932978131</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>727.3608922120462</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>641.1821863724238</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>509.1792295648712</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>304.3706185764142</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>32.99251467045417</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.31691534870257</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>113.6691117605117</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>199.6325940129328</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>718.2192769951455</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>753.0940742173893</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>543.9789825898729</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4497813543038</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.8384195361551</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.4406780882803</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>221.726810767063</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>244.2738972928199</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>243.9551215314282</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>209.1539637376242</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>155.2090835636436</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.18086559645565</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>235.1229648928014</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3528237683317</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>641.2812973156141</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>730.3232932978131</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>727.3608922120462</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>641.1821863724238</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>509.1792295648712</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>304.3706185764142</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>32.99251467045417</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.31691534870257</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>113.6691117605117</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>199.6325940129328</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>718.2192769951455</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>750.6252020928642</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>227.9850860744606</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>481.912549994241</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.8384195361551</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>129.4406780882803</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>221.726810767063</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>244.2738972928199</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>243.9551215314282</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>209.1539637376242</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>155.2090835636436</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.18086559645565</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>441.2361441450414</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,13 +38107,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>618.2977090519464</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
